--- a/excel_with_subclasses/without_zeros/department_of_france_with_count_without_zeros.xlsx
+++ b/excel_with_subclasses/without_zeros/department_of_france_with_count_without_zeros.xlsx
@@ -25,7 +25,7 @@
     <t>class</t>
   </si>
   <si>
-    <t>count_P31</t>
+    <t>signifance</t>
   </si>
   <si>
     <t>Q3044799</t>
@@ -428,9 +428,6 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2">
-        <v>18</v>
-      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
@@ -441,9 +438,6 @@
       </c>
       <c r="C3" t="s">
         <v>8</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
